--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,7 +341,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-mutational-burden-status-interpretation</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-mutational-burden-status-interpretations</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -692,7 +692,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.37109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="80.19140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
+++ b/StructureDefinition-onconova-ext-tumor-mutational-burden-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
